--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.4_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2728820942261959</v>
+        <v>0.2681050241625016</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2728820942261959, 'ngram_match_score': 0.09413266105154956, 'weighted_ngram_match_score': 0.10963198177680097, 'syntax_match_score': 0.58203125, 'dataflow_match_score': 0.3057324840764331}</t>
+          <t>{'codebleu': 0.26810502416250165, 'ngram_match_score': 0.09413266105154956, 'weighted_ngram_match_score': 0.10963198177680097, 'syntax_match_score': 0.58203125, 'dataflow_match_score': 0.28662420382165604}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.4_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2681050241625016</v>
+        <v>0.2665126674746036</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.26810502416250165, 'ngram_match_score': 0.09413266105154956, 'weighted_ngram_match_score': 0.10963198177680097, 'syntax_match_score': 0.58203125, 'dataflow_match_score': 0.28662420382165604}</t>
+          <t>{'codebleu': 0.26651266747460356, 'ngram_match_score': 0.09413266105154956, 'weighted_ngram_match_score': 0.10963198177680097, 'syntax_match_score': 0.58203125, 'dataflow_match_score': 0.2802547770700637}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
